--- a/Data_Learning_Prediction/For_Book_Chapter_Feature Selection_TUR/FeatureSelection_TUR_GBR_841850_same-all.xlsx
+++ b/Data_Learning_Prediction/For_Book_Chapter_Feature Selection_TUR/FeatureSelection_TUR_GBR_841850_same-all.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murat.ozemre\Desktop\Thesis_Project\Data_Learning_Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murat.ozemre\Desktop\Thesis_Project\Data_Learning_Prediction\For_Book_Chapter_Feature Selection_TUR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -550,6 +550,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -599,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -609,6 +612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6645,7 +6649,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:J23" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -6794,7 +6798,7 @@
     <dataField name="Average of value" fld="2" subtotal="average" baseField="0" baseItem="331375536"/>
   </dataFields>
   <conditionalFormats count="2">
-    <conditionalFormat type="all" priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="1">
@@ -6805,7 +6809,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="3">
+    <conditionalFormat type="all" priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="1">
@@ -27441,10 +27445,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J23"/>
+  <dimension ref="A3:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27463,7 +27467,7 @@
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
@@ -27471,7 +27475,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>82</v>
       </c>
@@ -27482,7 +27486,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>85</v>
       </c>
@@ -27514,7 +27518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>73</v>
       </c>
@@ -27545,8 +27549,35 @@
       <c r="J6" s="2">
         <v>0.62640000000000007</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L6" s="5">
+        <v>0.64359999999999995</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.63039999999999996</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.62960000000000005</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.63740000000000008</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.63760000000000006</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.64580000000000004</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0.62640000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -27577,8 +27608,35 @@
       <c r="J7" s="2">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L7" s="5">
+        <v>0.66779999999999995</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.65920000000000001</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.6714</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.66200000000000014</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0.66280000000000006</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -27609,8 +27667,35 @@
       <c r="J8" s="2">
         <v>0.69480000000000008</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L8" s="5">
+        <v>0.7026</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.68520000000000003</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.68640000000000012</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.72099999999999986</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0.7128000000000001</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.69339999999999991</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0.69480000000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>74</v>
       </c>
@@ -27641,8 +27726,35 @@
       <c r="J9" s="2">
         <v>0.60299999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L9" s="5">
+        <v>0.5978</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.60780000000000001</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.58619999999999994</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0.5978</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -27673,8 +27785,35 @@
       <c r="J10" s="2">
         <v>0.69879999999999987</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L10" s="5">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.68559999999999999</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.67739999999999989</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.70559999999999989</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.70939999999999992</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0.70540000000000003</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0.69879999999999987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -27705,8 +27844,35 @@
       <c r="J11" s="2">
         <v>0.73819999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L11" s="5">
+        <v>0.73099999999999987</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.71540000000000004</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.71679999999999999</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.746</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.74480000000000002</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0.74240000000000006</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.75160000000000005</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0.73240000000000005</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0.73819999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>75</v>
       </c>
@@ -27737,8 +27903,35 @@
       <c r="J12" s="2">
         <v>0.69880000000000009</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L12" s="5">
+        <v>0.73360000000000003</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0.72619999999999996</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.71720000000000006</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.68220000000000014</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.67179999999999995</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0.66939999999999988</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.68820000000000003</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0.69880000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -27769,8 +27962,35 @@
       <c r="J13" s="2">
         <v>0.74580000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L13" s="5">
+        <v>0.80559999999999987</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.76880000000000004</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.7340000000000001</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.73419999999999996</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0.73959999999999992</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.77960000000000007</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="T13" s="5">
+        <v>0.74580000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -27801,8 +28021,35 @@
       <c r="J14" s="2">
         <v>0.75759999999999994</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L14" s="5">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.76059999999999994</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.75619999999999998</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.75480000000000003</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.78660000000000019</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0.76780000000000004</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0.75759999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>76</v>
       </c>
@@ -27833,8 +28080,35 @@
       <c r="J15" s="2">
         <v>0.75080000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L15" s="5">
+        <v>0.81319999999999992</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.75339999999999996</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.75339999999999996</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.70679999999999998</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0.72340000000000004</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0.76059999999999994</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0.75080000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -27865,8 +28139,35 @@
       <c r="J16" s="2">
         <v>0.78479999999999994</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L16" s="5">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0.79380000000000006</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.79060000000000008</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.76459999999999995</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.74819999999999998</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0.75020000000000009</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0.81180000000000008</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="T16" s="5">
+        <v>0.78479999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -27897,8 +28198,35 @@
       <c r="J17" s="2">
         <v>0.76319999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L17" s="5">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.74919999999999987</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0.7125999999999999</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0.72540000000000004</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.7592000000000001</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0.74859999999999993</v>
+      </c>
+      <c r="T17" s="5">
+        <v>0.76319999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>77</v>
       </c>
@@ -27929,8 +28257,35 @@
       <c r="J18" s="2">
         <v>0.65480000000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L18" s="5">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0.66380000000000006</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.62039999999999984</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.67160000000000009</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0.64959999999999996</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.71299999999999986</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0.68880000000000008</v>
+      </c>
+      <c r="T18" s="5">
+        <v>0.65480000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -27961,8 +28316,35 @@
       <c r="J19" s="2">
         <v>0.62600000000000011</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L19" s="5">
+        <v>0.64879999999999993</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0.63559999999999994</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.61960000000000004</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0.59940000000000004</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.59579999999999989</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0.60459999999999992</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0.62600000000000011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -27993,8 +28375,35 @@
       <c r="J20" s="2">
         <v>0.6532</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L20" s="5">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0.61900000000000011</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0.64060000000000006</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.62639999999999996</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.61460000000000004</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0.64359999999999995</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0.64560000000000006</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.63919999999999999</v>
+      </c>
+      <c r="T20" s="5">
+        <v>0.6532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>78</v>
       </c>
@@ -28025,8 +28434,35 @@
       <c r="J21" s="2">
         <v>0.47099999999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L21" s="5">
+        <v>0.41260000000000002</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0.43319999999999997</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.46360000000000001</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0.39839999999999998</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.44159999999999994</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0.41740000000000005</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0.45380000000000004</v>
+      </c>
+      <c r="T21" s="5">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -28057,8 +28493,35 @@
       <c r="J22" s="2">
         <v>0.55360000000000009</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L22" s="5">
+        <v>0.4728</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0.53420000000000001</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.55780000000000007</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0.53220000000000012</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0.52560000000000007</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0.56359999999999988</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0.55360000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -28087,6 +28550,33 @@
         <v>0.54960000000000009</v>
       </c>
       <c r="J23" s="2">
+        <v>0.55859999999999999</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.51579999999999993</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.53579999999999994</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0.54960000000000009</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0.56179999999999997</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0.54960000000000009</v>
+      </c>
+      <c r="T23" s="5">
         <v>0.55859999999999999</v>
       </c>
     </row>
